--- a/Primevideo.xlsx
+++ b/Primevideo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Drumond\Documents\Insper 2o semestre\CDados\Projeto 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Drumond\Documents\Insper 2o semestre\CDados\GitHub_CD\Projeto_1_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23296381-C478-4AE6-9C1D-DC63EEF23444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81BEECA-9DDC-4AA0-AE7F-AB5BFCF2AA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="800">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2872,6 +2872,9 @@
   <si>
     <t>@rolealeatorio baseado no caso ritchofen, dois filmes e duas versões: a menina que matou os pais e o menino que matou meus pais chegam dia 24/9, exclusivamente na amazon prime vídeo @carladiaz
 https://t.co/6b6fy2twa6</t>
+  </si>
+  <si>
+    <t>Classificacao</t>
   </si>
 </sst>
 </file>
@@ -2949,16 +2952,17 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -3300,8 +3304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A493" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E306" sqref="E306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3314,8 +3318,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>501</v>
+      <c r="B1" s="3" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3323,7 +3327,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3331,7 +3335,7 @@
         <v>113</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3339,7 +3343,7 @@
         <v>286</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3347,7 +3351,7 @@
         <v>170</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3355,7 +3359,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3363,7 +3367,7 @@
         <v>127</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3371,7 +3375,7 @@
         <v>93</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -3379,7 +3383,7 @@
         <v>92</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -3387,7 +3391,7 @@
         <v>220</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -3395,7 +3399,7 @@
         <v>273</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -3403,7 +3407,7 @@
         <v>64</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -3411,7 +3415,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -3419,7 +3423,7 @@
         <v>181</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -3427,7 +3431,7 @@
         <v>129</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -3435,7 +3439,7 @@
         <v>140</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -3443,15 +3447,15 @@
         <v>132</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -3459,7 +3463,7 @@
         <v>75</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -3467,7 +3471,7 @@
         <v>175</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -3475,7 +3479,7 @@
         <v>280</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -3483,7 +3487,7 @@
         <v>218</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -3491,7 +3495,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -3499,7 +3503,7 @@
         <v>96</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -3507,7 +3511,7 @@
         <v>46</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -3515,7 +3519,7 @@
         <v>49</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -3523,7 +3527,7 @@
         <v>66</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -3531,7 +3535,7 @@
         <v>184</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -3539,7 +3543,7 @@
         <v>117</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -3547,7 +3551,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -3555,7 +3559,7 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -3563,7 +3567,7 @@
         <v>67</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -3571,7 +3575,7 @@
         <v>199</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -3579,7 +3583,7 @@
         <v>228</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -3587,7 +3591,7 @@
         <v>17</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -3595,7 +3599,7 @@
         <v>163</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -3603,7 +3607,7 @@
         <v>171</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -3611,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -3619,7 +3623,7 @@
         <v>179</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -3627,7 +3631,7 @@
         <v>180</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -3643,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -3651,7 +3655,7 @@
         <v>97</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -3659,7 +3663,7 @@
         <v>190</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -3667,7 +3671,7 @@
         <v>265</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -3675,7 +3679,7 @@
         <v>293</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -3691,7 +3695,7 @@
         <v>105</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -3699,7 +3703,7 @@
         <v>229</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -3707,7 +3711,7 @@
         <v>292</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -3715,7 +3719,7 @@
         <v>122</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -3723,7 +3727,7 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -3731,7 +3735,7 @@
         <v>80</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -3739,7 +3743,7 @@
         <v>295</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -3747,7 +3751,7 @@
         <v>210</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -3755,7 +3759,7 @@
         <v>241</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -3763,7 +3767,7 @@
         <v>71</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -3771,7 +3775,7 @@
         <v>159</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -3779,7 +3783,7 @@
         <v>282</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -3787,7 +3791,7 @@
         <v>120</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -3803,7 +3807,7 @@
         <v>261</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -3811,7 +3815,7 @@
         <v>211</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -3819,7 +3823,7 @@
         <v>246</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -3827,7 +3831,7 @@
         <v>36</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -3843,7 +3847,7 @@
         <v>187</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -3851,7 +3855,7 @@
         <v>165</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -3859,7 +3863,7 @@
         <v>237</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -3867,7 +3871,7 @@
         <v>138</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -3875,7 +3879,7 @@
         <v>217</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -3883,7 +3887,7 @@
         <v>152</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -3891,7 +3895,7 @@
         <v>177</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -3899,7 +3903,7 @@
         <v>189</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -3907,7 +3911,7 @@
         <v>47</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -3915,7 +3919,7 @@
         <v>63</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -3923,7 +3927,7 @@
         <v>283</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -3931,7 +3935,7 @@
         <v>48</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -3939,7 +3943,7 @@
         <v>205</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -3947,7 +3951,7 @@
         <v>38</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -3955,7 +3959,7 @@
         <v>601</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -3963,7 +3967,7 @@
         <v>602</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -3971,7 +3975,7 @@
         <v>603</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -3979,7 +3983,7 @@
         <v>604</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -3987,7 +3991,7 @@
         <v>605</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -3995,7 +3999,7 @@
         <v>606</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -4003,7 +4007,7 @@
         <v>607</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -4011,7 +4015,7 @@
         <v>608</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -4019,7 +4023,7 @@
         <v>609</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -4027,7 +4031,7 @@
         <v>610</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -4035,7 +4039,7 @@
         <v>611</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -4043,7 +4047,7 @@
         <v>612</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -4051,7 +4055,7 @@
         <v>613</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -4059,7 +4063,7 @@
         <v>614</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -4075,7 +4079,7 @@
         <v>616</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -4083,7 +4087,7 @@
         <v>617</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -4091,7 +4095,7 @@
         <v>618</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -4099,7 +4103,7 @@
         <v>619</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -4115,7 +4119,7 @@
         <v>621</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -4123,7 +4127,7 @@
         <v>622</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -4131,7 +4135,7 @@
         <v>623</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -4139,7 +4143,7 @@
         <v>624</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -4147,7 +4151,7 @@
         <v>625</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -4155,7 +4159,7 @@
         <v>626</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -4163,7 +4167,7 @@
         <v>627</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -4171,7 +4175,7 @@
         <v>628</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -4179,7 +4183,7 @@
         <v>629</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -4187,7 +4191,7 @@
         <v>630</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -4195,7 +4199,7 @@
         <v>631</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -4203,7 +4207,7 @@
         <v>632</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -4211,7 +4215,7 @@
         <v>633</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -4219,7 +4223,7 @@
         <v>634</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -4227,7 +4231,7 @@
         <v>635</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -4235,7 +4239,7 @@
         <v>636</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -4243,7 +4247,7 @@
         <v>637</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -4259,7 +4263,7 @@
         <v>639</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -4267,7 +4271,7 @@
         <v>640</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -4275,7 +4279,7 @@
         <v>641</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -4283,7 +4287,7 @@
         <v>642</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -4291,7 +4295,7 @@
         <v>643</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -4299,7 +4303,7 @@
         <v>644</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -4307,7 +4311,7 @@
         <v>645</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -4315,7 +4319,7 @@
         <v>646</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -4323,7 +4327,7 @@
         <v>647</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -4339,7 +4343,7 @@
         <v>649</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -4347,7 +4351,7 @@
         <v>650</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -4355,7 +4359,7 @@
         <v>651</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -4363,15 +4367,15 @@
         <v>652</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>653</v>
       </c>
-      <c r="B133" s="6">
-        <v>1</v>
+      <c r="B133">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -4379,7 +4383,7 @@
         <v>256</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -4387,7 +4391,7 @@
         <v>65</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -4395,7 +4399,7 @@
         <v>12</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -4403,7 +4407,7 @@
         <v>166</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -4411,7 +4415,7 @@
         <v>168</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -4419,7 +4423,7 @@
         <v>186</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -4427,7 +4431,7 @@
         <v>84</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -4435,7 +4439,7 @@
         <v>267</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -4443,7 +4447,7 @@
         <v>52</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -4459,7 +4463,7 @@
         <v>62</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -4467,7 +4471,7 @@
         <v>106</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -4475,7 +4479,7 @@
         <v>252</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -4483,7 +4487,7 @@
         <v>263</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -4491,7 +4495,7 @@
         <v>235</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -4499,7 +4503,7 @@
         <v>83</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -4507,2566 +4511,2566 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+      <c r="A151" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B151">
-        <v>0</v>
+      <c r="B151" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+      <c r="A152" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+      <c r="A153" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B153">
-        <v>0</v>
+      <c r="B153" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+      <c r="A154" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B154">
-        <v>0</v>
+      <c r="B154" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+      <c r="A155" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B155">
-        <v>0</v>
+      <c r="B155" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+      <c r="A156" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B156">
-        <v>0</v>
+      <c r="B156" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+      <c r="A157" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B157">
-        <v>0</v>
+      <c r="B157" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+      <c r="A158" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B158">
-        <v>0</v>
+      <c r="B158" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+      <c r="A159" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B159">
-        <v>0</v>
+      <c r="B159" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+      <c r="A160" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B160">
-        <v>0</v>
+      <c r="B160" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="A161" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+      <c r="A162" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+      <c r="A163" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+      <c r="A164" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B164">
-        <v>0</v>
+      <c r="B164" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+      <c r="A165" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B165">
-        <v>0</v>
+      <c r="B165" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+      <c r="A166" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B166">
-        <v>0</v>
+      <c r="B166" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+      <c r="A167" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B167">
-        <v>0</v>
+      <c r="B167" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+      <c r="A168" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B168">
-        <v>0</v>
+      <c r="B168" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+      <c r="A169" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B169">
-        <v>0</v>
+      <c r="B169" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+      <c r="A170" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B170">
-        <v>0</v>
+      <c r="B170" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+      <c r="A171" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B171">
-        <v>0</v>
+      <c r="B171" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+      <c r="A172" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B172">
-        <v>0</v>
+      <c r="B172" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+      <c r="A173" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B173">
-        <v>0</v>
+      <c r="B173" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+      <c r="A174" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B174">
-        <v>0</v>
+      <c r="B174" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+      <c r="A175" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B175">
-        <v>0</v>
+      <c r="B175" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+      <c r="A176" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B176">
-        <v>0</v>
+      <c r="B176" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+      <c r="A177" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B177">
-        <v>0</v>
+      <c r="B177" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+      <c r="A178" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B178">
-        <v>0</v>
+      <c r="B178" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+      <c r="A179" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B179">
-        <v>0</v>
+      <c r="B179" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+      <c r="A180" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B180">
-        <v>0</v>
+      <c r="B180" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+      <c r="A181" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B181">
-        <v>0</v>
+      <c r="B181" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+      <c r="A182" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B182">
-        <v>0</v>
+      <c r="B182" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+      <c r="A183" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B183">
-        <v>0</v>
+      <c r="B183" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+      <c r="A184" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B184">
-        <v>0</v>
+      <c r="B184" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+      <c r="A185" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B185">
-        <v>0</v>
+      <c r="B185" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+      <c r="A186" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B186">
-        <v>0</v>
+      <c r="B186" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+      <c r="A187" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B187">
-        <v>0</v>
+      <c r="B187" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+      <c r="A188" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+      <c r="A189" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+      <c r="A190" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+      <c r="A191" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+      <c r="A192" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+      <c r="A193" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+      <c r="A194" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+      <c r="A195" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+      <c r="A196" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+      <c r="A197" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B197">
-        <v>0</v>
+      <c r="B197" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+      <c r="A198" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+      <c r="A199" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+      <c r="A200" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+      <c r="A201" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
+      <c r="A202" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
+      <c r="A203" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B203">
-        <v>0</v>
+      <c r="B203" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+      <c r="A204" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
+      <c r="A205" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
+      <c r="A206" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
+      <c r="A207" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
+      <c r="A208" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
+      <c r="A209" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B209">
-        <v>0</v>
+      <c r="B209" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
+      <c r="A210" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
+      <c r="A211" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
+      <c r="A212" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B212">
-        <v>0</v>
+      <c r="B212" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
+      <c r="A213" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B213">
-        <v>0</v>
+      <c r="B213" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
+      <c r="A214" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B214">
-        <v>0</v>
+      <c r="B214" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
+      <c r="A215" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B215">
-        <v>0</v>
+      <c r="B215" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
+      <c r="A216" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B216">
-        <v>0</v>
+      <c r="B216" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
+      <c r="A217" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
+      <c r="A218" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
+      <c r="A219" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B219">
-        <v>0</v>
+      <c r="B219" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
+      <c r="A220" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
+      <c r="A221" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
+      <c r="A222" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
+      <c r="A223" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B223">
-        <v>0</v>
+      <c r="B223" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
+      <c r="A224" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B224">
-        <v>0</v>
+      <c r="B224" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
+      <c r="A225" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
+      <c r="A226" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
+      <c r="A227" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
+      <c r="A228" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B228">
-        <v>0</v>
+      <c r="B228" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
+      <c r="A229" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B229">
-        <v>0</v>
+      <c r="B229" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
+      <c r="A230" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B230">
-        <v>0</v>
+      <c r="B230" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
+      <c r="A231" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B231">
-        <v>0</v>
+      <c r="B231" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
+      <c r="A232" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
+      <c r="A233" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B233">
-        <v>0</v>
+      <c r="B233" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
+      <c r="A234" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B234">
-        <v>0</v>
+      <c r="B234" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
+      <c r="A235" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B235">
-        <v>0</v>
+      <c r="B235" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
+      <c r="A236" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B236">
-        <v>0</v>
+      <c r="B236" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
+      <c r="A237" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
+      <c r="A238" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
+      <c r="A239" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B239">
-        <v>0</v>
+      <c r="B239" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
+      <c r="A240" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
+      <c r="A241" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B241">
-        <v>0</v>
+      <c r="B241" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
+      <c r="A242" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
+      <c r="A243" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
+      <c r="A244" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B244">
-        <v>0</v>
+      <c r="B244" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
+      <c r="A245" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
+      <c r="A246" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B246">
-        <v>0</v>
+      <c r="B246" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
+      <c r="A247" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B247">
-        <v>0</v>
+      <c r="B247" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
+      <c r="A248" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B248">
-        <v>0</v>
+      <c r="B248" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
+      <c r="A249" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B249">
-        <v>0</v>
+      <c r="B249" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
+      <c r="A250" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B250">
-        <v>0</v>
+      <c r="B250" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
+      <c r="A251" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
+      <c r="A252" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B252">
-        <v>0</v>
+      <c r="B252" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
+      <c r="A253" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B253">
-        <v>0</v>
+      <c r="B253" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
+      <c r="A254" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+      <c r="A255" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B255">
-        <v>0</v>
+      <c r="B255" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
+      <c r="A256" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B256">
-        <v>0</v>
+      <c r="B256" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
+      <c r="A257" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B257">
-        <v>0</v>
+      <c r="B257" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
+      <c r="A258" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B258">
-        <v>0</v>
+      <c r="B258" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
+      <c r="A259" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
+      <c r="A260" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
+      <c r="A261" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
+      <c r="A262" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
+      <c r="A263" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
+      <c r="A264" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
+      <c r="A265" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
+      <c r="A266" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B266">
-        <v>0</v>
+      <c r="B266" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
+      <c r="A267" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
+      <c r="A268" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
+      <c r="A269" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
+      <c r="A270" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B270">
-        <v>0</v>
+      <c r="B270" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
+      <c r="A271" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B271">
-        <v>0</v>
+      <c r="B271" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
+      <c r="A272" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B272">
-        <v>0</v>
+      <c r="B272" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
+      <c r="A273" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B273">
-        <v>0</v>
+      <c r="B273" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
+      <c r="A274" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B274">
-        <v>0</v>
+      <c r="B274" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
+      <c r="A275" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B275">
-        <v>0</v>
+      <c r="B275" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
+      <c r="A276" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B276">
-        <v>0</v>
+      <c r="B276" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
+      <c r="A277" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
+      <c r="A278" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B278">
-        <v>0</v>
+      <c r="B278" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
+      <c r="A279" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
+      <c r="A280" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B280">
-        <v>0</v>
+      <c r="B280" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
+      <c r="A281" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B281">
-        <v>0</v>
+      <c r="B281" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
+      <c r="A282" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B282">
-        <v>0</v>
+      <c r="B282" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
+      <c r="A283" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
+      <c r="A284" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
-        <v>1</v>
-      </c>
-      <c r="B285">
+      <c r="A285" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B285" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
+      <c r="A286" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
+      <c r="A287" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
+      <c r="A288" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
+      <c r="A289" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
+      <c r="A290" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
+      <c r="A291" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
+      <c r="A292" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
+      <c r="A293" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
+      <c r="A294" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
+      <c r="A295" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B295">
-        <v>0</v>
+      <c r="B295" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
+      <c r="A296" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
+      <c r="A297" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B297">
-        <v>0</v>
+      <c r="B297" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
+      <c r="A298" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B298">
-        <v>0</v>
+      <c r="B298" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
+      <c r="A299" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B299">
-        <v>0</v>
+      <c r="B299" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
+      <c r="A300" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
+      <c r="A301" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B301">
-        <v>0</v>
+      <c r="B301" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
+      <c r="A302" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B302">
-        <v>0</v>
+      <c r="B302" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
+      <c r="A303" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
+      <c r="A304" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B304">
-        <v>0</v>
+      <c r="B304" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
+      <c r="A305" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A306" t="s">
+      <c r="A306" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B306">
-        <v>0</v>
+      <c r="B306" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" t="s">
+      <c r="A307" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B307">
-        <v>0</v>
+      <c r="B307" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A308" t="s">
+      <c r="A308" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B308">
-        <v>0</v>
+      <c r="B308" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A309" t="s">
+      <c r="A309" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B309">
-        <v>0</v>
+      <c r="B309" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A310" s="2" t="s">
+      <c r="A310" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A311" t="s">
+      <c r="A311" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B311">
-        <v>0</v>
+      <c r="B311" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A312" t="s">
+      <c r="A312" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B312">
-        <v>0</v>
+      <c r="B312" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
+      <c r="A313" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
+      <c r="A314" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B314">
-        <v>0</v>
+      <c r="B314" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A315" t="s">
+      <c r="A315" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316" t="s">
+      <c r="A316" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317" t="s">
+      <c r="A317" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B317">
-        <v>0</v>
+      <c r="B317" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A318" t="s">
+      <c r="A318" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B318">
-        <v>0</v>
+      <c r="B318" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319" t="s">
+      <c r="A319" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B319">
-        <v>0</v>
+      <c r="B319" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320" t="s">
+      <c r="A320" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B320">
-        <v>0</v>
+      <c r="B320" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
+      <c r="A321" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322" t="s">
+      <c r="A322" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A323" t="s">
+      <c r="A323" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B323">
-        <v>0</v>
+      <c r="B323" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A324" t="s">
+      <c r="A324" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B324">
-        <v>0</v>
+      <c r="B324" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A325" t="s">
+      <c r="A325" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B325">
-        <v>0</v>
+      <c r="B325" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A326" t="s">
+      <c r="A326" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B326">
-        <v>0</v>
+      <c r="B326" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A327" t="s">
+      <c r="A327" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B327">
-        <v>0</v>
+      <c r="B327" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A328" t="s">
+      <c r="A328" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A329" t="s">
+      <c r="A329" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B329">
-        <v>0</v>
+      <c r="B329" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A330" t="s">
+      <c r="A330" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B330">
-        <v>0</v>
+      <c r="B330" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A331" t="s">
+      <c r="A331" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A332" t="s">
+      <c r="A332" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A333" t="s">
+      <c r="A333" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B333">
-        <v>0</v>
+      <c r="B333" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A334" t="s">
+      <c r="A334" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B334">
-        <v>0</v>
+      <c r="B334" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A335" t="s">
+      <c r="A335" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A336" t="s">
+      <c r="A336" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B336">
-        <v>0</v>
+      <c r="B336" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A337" t="s">
+      <c r="A337" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B337">
-        <v>0</v>
+      <c r="B337" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A338" t="s">
+      <c r="A338" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A339" t="s">
+      <c r="A339" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A340" t="s">
+      <c r="A340" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B340">
-        <v>0</v>
+      <c r="B340" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A341" t="s">
+      <c r="A341" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B341">
-        <v>0</v>
+      <c r="B341" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A342" t="s">
+      <c r="A342" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A343" t="s">
+      <c r="A343" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A344" t="s">
+      <c r="A344" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B344">
-        <v>0</v>
+      <c r="B344" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A345" t="s">
+      <c r="A345" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B345">
-        <v>0</v>
+      <c r="B345" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A346" t="s">
+      <c r="A346" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B346">
-        <v>0</v>
+      <c r="B346" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A347" t="s">
+      <c r="A347" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B347">
-        <v>0</v>
+      <c r="B347" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A348" t="s">
+      <c r="A348" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B348">
-        <v>0</v>
+      <c r="B348" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A349" t="s">
+      <c r="A349" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
+      <c r="A350" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B350">
-        <v>0</v>
+      <c r="B350" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
+      <c r="A351" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
+      <c r="A352" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
+      <c r="A353" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B353">
-        <v>0</v>
+      <c r="B353" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A354" t="s">
+      <c r="A354" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="B354">
-        <v>0</v>
+      <c r="B354" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A355" t="s">
+      <c r="A355" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="B355">
-        <v>0</v>
+      <c r="B355" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A356" t="s">
+      <c r="A356" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A357" t="s">
+      <c r="A357" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A358" t="s">
+      <c r="A358" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="B358">
-        <v>0</v>
+      <c r="B358" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A359" t="s">
+      <c r="A359" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A360" t="s">
+      <c r="A360" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A361" t="s">
+      <c r="A361" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="B361">
-        <v>0</v>
+      <c r="B361" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A362" t="s">
+      <c r="A362" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A363" t="s">
+      <c r="A363" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A364" t="s">
+      <c r="A364" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A365" t="s">
+      <c r="A365" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="B365">
-        <v>0</v>
+      <c r="B365" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A366" t="s">
+      <c r="A366" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="B366">
-        <v>0</v>
+      <c r="B366" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A367" t="s">
+      <c r="A367" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="B367">
-        <v>0</v>
+      <c r="B367" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A368" t="s">
+      <c r="A368" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="B368">
-        <v>0</v>
+      <c r="B368" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A369" t="s">
+      <c r="A369" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="B369">
-        <v>0</v>
+      <c r="B369" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A370" t="s">
+      <c r="A370" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A371" t="s">
+      <c r="A371" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A372" t="s">
+      <c r="A372" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="B372">
-        <v>0</v>
+      <c r="B372" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A373" t="s">
+      <c r="A373" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="B373">
-        <v>0</v>
+      <c r="B373" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A374" t="s">
+      <c r="A374" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="B374">
-        <v>0</v>
+      <c r="B374" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A375" t="s">
+      <c r="A375" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A376" t="s">
+      <c r="A376" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="B376">
-        <v>0</v>
+      <c r="B376" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A377" t="s">
+      <c r="A377" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A378" t="s">
+      <c r="A378" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A379" t="s">
+      <c r="A379" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="B379">
-        <v>0</v>
+      <c r="B379" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A380" t="s">
+      <c r="A380" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="B380">
-        <v>0</v>
+      <c r="B380" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A381" t="s">
+      <c r="A381" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="B381">
-        <v>0</v>
+      <c r="B381" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A382" t="s">
+      <c r="A382" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A383" t="s">
+      <c r="A383" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A384" t="s">
+      <c r="A384" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A385" t="s">
+      <c r="A385" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="B385">
-        <v>0</v>
+      <c r="B385" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A386" t="s">
+      <c r="A386" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="B386">
-        <v>0</v>
+      <c r="B386" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A387" t="s">
+      <c r="A387" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="B387">
-        <v>0</v>
+      <c r="B387" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A388" t="s">
+      <c r="A388" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="B388">
-        <v>0</v>
+      <c r="B388" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A389" t="s">
+      <c r="A389" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="B389">
-        <v>0</v>
+      <c r="B389" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A390" t="s">
+      <c r="A390" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A391" t="s">
+      <c r="A391" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="B391">
-        <v>0</v>
+      <c r="B391" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A392" t="s">
+      <c r="A392" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A393" t="s">
+      <c r="A393" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A394" t="s">
+      <c r="A394" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="B394">
-        <v>0</v>
+      <c r="B394" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A395" t="s">
+      <c r="A395" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="B395">
-        <v>0</v>
+      <c r="B395" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A396" t="s">
+      <c r="A396" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A397" t="s">
+      <c r="A397" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="B397">
-        <v>0</v>
+      <c r="B397" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A398" t="s">
+      <c r="A398" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A399" t="s">
+      <c r="A399" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="B399">
-        <v>0</v>
+      <c r="B399" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A400" t="s">
+      <c r="A400" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A401" t="s">
+      <c r="A401" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A402" t="s">
+      <c r="A402" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="B402">
-        <v>0</v>
+      <c r="B402" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A403" t="s">
+      <c r="A403" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="B403">
-        <v>0</v>
+      <c r="B403" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A404" t="s">
+      <c r="A404" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A405" t="s">
+      <c r="A405" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A406" t="s">
+      <c r="A406" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="B406">
-        <v>0</v>
+      <c r="B406" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A407" t="s">
+      <c r="A407" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A408" t="s">
+      <c r="A408" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A409" t="s">
+      <c r="A409" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A410" t="s">
+      <c r="A410" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="B410">
-        <v>0</v>
+      <c r="B410" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A411" t="s">
+      <c r="A411" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A412" t="s">
+      <c r="A412" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A413" t="s">
+      <c r="A413" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="B413">
+      <c r="B413" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A414" t="s">
+      <c r="A414" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A415" t="s">
+      <c r="A415" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="B415">
-        <v>0</v>
+      <c r="B415" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A416" s="2" t="s">
+      <c r="A416" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A417" t="s">
+      <c r="A417" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="B417">
-        <v>0</v>
+      <c r="B417" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A418" t="s">
+      <c r="A418" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A419" t="s">
+      <c r="A419" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B419">
+      <c r="B419" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A420" t="s">
+      <c r="A420" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A421" t="s">
+      <c r="A421" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="B421">
-        <v>0</v>
+      <c r="B421" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A422" t="s">
+      <c r="A422" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="B422">
-        <v>0</v>
+      <c r="B422" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A423" t="s">
+      <c r="A423" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="B423">
-        <v>0</v>
+      <c r="B423" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A424" t="s">
+      <c r="A424" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="B424">
-        <v>0</v>
+      <c r="B424" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A425" t="s">
+      <c r="A425" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="B425">
-        <v>0</v>
+      <c r="B425" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A426" t="s">
+      <c r="A426" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="B426">
-        <v>0</v>
+      <c r="B426" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A427" t="s">
+      <c r="A427" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="B427">
+      <c r="B427" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A428" t="s">
+      <c r="A428" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="B428">
-        <v>0</v>
+      <c r="B428" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A429" t="s">
+      <c r="A429" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="B429">
+      <c r="B429" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A430" t="s">
+      <c r="A430" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="B430">
-        <v>0</v>
+      <c r="B430" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A431" t="s">
+      <c r="A431" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="B431">
-        <v>0</v>
+      <c r="B431" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A432" t="s">
+      <c r="A432" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="B432">
-        <v>0</v>
+      <c r="B432" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A433" t="s">
+      <c r="A433" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A434" t="s">
+      <c r="A434" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="B434">
+      <c r="B434" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A435" t="s">
+      <c r="A435" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="B435">
-        <v>0</v>
+      <c r="B435" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A436" t="s">
+      <c r="A436" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="B436">
-        <v>0</v>
+      <c r="B436" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A437" t="s">
+      <c r="A437" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="B437">
-        <v>0</v>
+      <c r="B437" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A438" t="s">
+      <c r="A438" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="B438">
-        <v>0</v>
+      <c r="B438" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A439" t="s">
+      <c r="A439" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="B439">
+      <c r="B439" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A440" t="s">
+      <c r="A440" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="B440">
-        <v>0</v>
+      <c r="B440" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A441" t="s">
+      <c r="A441" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A442" t="s">
+      <c r="A442" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="B442">
-        <v>0</v>
+      <c r="B442" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A443" t="s">
+      <c r="A443" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="B443">
-        <v>0</v>
+      <c r="B443" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A444" t="s">
+      <c r="A444" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="B444">
-        <v>0</v>
+      <c r="B444" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A445" t="s">
+      <c r="A445" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="B445">
-        <v>0</v>
+      <c r="B445" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A446" t="s">
+      <c r="A446" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="B446">
-        <v>0</v>
+      <c r="B446" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A447" t="s">
+      <c r="A447" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="B447">
-        <v>0</v>
+      <c r="B447" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A448" t="s">
+      <c r="A448" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="B448">
-        <v>0</v>
+      <c r="B448" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A449" t="s">
+      <c r="A449" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="B449">
-        <v>0</v>
+      <c r="B449" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A450" t="s">
+      <c r="A450" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="B450">
-        <v>0</v>
+      <c r="B450" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A451" t="s">
+      <c r="A451" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="B451">
-        <v>0</v>
+      <c r="B451" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A452" t="s">
+      <c r="A452" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="B452">
+      <c r="B452" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A453" s="2" t="s">
+      <c r="A453" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="B453">
+      <c r="B453" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A454" t="s">
+      <c r="A454" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="B454">
-        <v>0</v>
+      <c r="B454" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A455" t="s">
+      <c r="A455" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="B455">
-        <v>0</v>
+      <c r="B455" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A456" t="s">
+      <c r="A456" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="B456">
-        <v>0</v>
+      <c r="B456" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A457" t="s">
+      <c r="A457" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="B457">
-        <v>0</v>
+      <c r="B457" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A458" t="s">
+      <c r="A458" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="B458">
+      <c r="B458" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A459" t="s">
+      <c r="A459" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="B459">
+      <c r="B459" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A460" t="s">
+      <c r="A460" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="B460">
+      <c r="B460" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A461" t="s">
+      <c r="A461" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="B461">
-        <v>0</v>
+      <c r="B461" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A462" t="s">
+      <c r="A462" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="B462">
-        <v>0</v>
+      <c r="B462" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A463" t="s">
+      <c r="A463" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="B463">
-        <v>0</v>
+      <c r="B463" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A464" t="s">
+      <c r="A464" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="B464">
-        <v>0</v>
+      <c r="B464" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A465" t="s">
+      <c r="A465" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="B465">
-        <v>0</v>
+      <c r="B465" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A466" t="s">
+      <c r="A466" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="B466">
+      <c r="B466" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A467" t="s">
+      <c r="A467" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="B467">
-        <v>0</v>
+      <c r="B467" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A468" t="s">
+      <c r="A468" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="B468">
-        <v>0</v>
+      <c r="B468" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A469" t="s">
+      <c r="A469" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="B469">
+      <c r="B469" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A470" t="s">
+      <c r="A470" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="B470">
+      <c r="B470" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7075,7 +7079,7 @@
         <v>769</v>
       </c>
       <c r="B471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.35">
@@ -7091,7 +7095,7 @@
         <v>771</v>
       </c>
       <c r="B473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.35">
@@ -7099,7 +7103,7 @@
         <v>772</v>
       </c>
       <c r="B474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.35">
@@ -7107,7 +7111,7 @@
         <v>773</v>
       </c>
       <c r="B475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.35">
@@ -7115,7 +7119,7 @@
         <v>774</v>
       </c>
       <c r="B476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.35">
@@ -7123,7 +7127,7 @@
         <v>775</v>
       </c>
       <c r="B477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.35">
@@ -7131,7 +7135,7 @@
         <v>776</v>
       </c>
       <c r="B478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.35">
@@ -7139,7 +7143,7 @@
         <v>777</v>
       </c>
       <c r="B479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.35">
@@ -7147,7 +7151,7 @@
         <v>778</v>
       </c>
       <c r="B480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.35">
@@ -7163,7 +7167,7 @@
         <v>780</v>
       </c>
       <c r="B482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.35">
@@ -7171,7 +7175,7 @@
         <v>781</v>
       </c>
       <c r="B483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.35">
@@ -7179,7 +7183,7 @@
         <v>782</v>
       </c>
       <c r="B484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.35">
@@ -7187,7 +7191,7 @@
         <v>783</v>
       </c>
       <c r="B485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.35">
@@ -7195,7 +7199,7 @@
         <v>784</v>
       </c>
       <c r="B486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.35">
@@ -7203,7 +7207,7 @@
         <v>785</v>
       </c>
       <c r="B487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.35">
@@ -7219,7 +7223,7 @@
         <v>787</v>
       </c>
       <c r="B489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.35">
@@ -7227,7 +7231,7 @@
         <v>788</v>
       </c>
       <c r="B490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.35">
@@ -7235,7 +7239,7 @@
         <v>789</v>
       </c>
       <c r="B491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.35">
@@ -7243,7 +7247,7 @@
         <v>790</v>
       </c>
       <c r="B492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.35">
@@ -7251,7 +7255,7 @@
         <v>791</v>
       </c>
       <c r="B493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.35">
@@ -7259,7 +7263,7 @@
         <v>792</v>
       </c>
       <c r="B494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.35">
@@ -7267,7 +7271,7 @@
         <v>793</v>
       </c>
       <c r="B495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.35">
@@ -7275,7 +7279,7 @@
         <v>794</v>
       </c>
       <c r="B496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.35">
@@ -7283,7 +7287,7 @@
         <v>795</v>
       </c>
       <c r="B497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.35">
@@ -7299,7 +7303,7 @@
         <v>797</v>
       </c>
       <c r="B499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.35">
@@ -7365,7 +7369,7 @@
       <c r="A4" t="s">
         <v>306</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7373,7 +7377,7 @@
       <c r="A5" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7381,7 +7385,7 @@
       <c r="A6" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7389,7 +7393,7 @@
       <c r="A7" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7397,7 +7401,7 @@
       <c r="A8" t="s">
         <v>314</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7405,7 +7409,7 @@
       <c r="A9" t="s">
         <v>320</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7413,7 +7417,7 @@
       <c r="A10" t="s">
         <v>321</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7421,7 +7425,7 @@
       <c r="A11" t="s">
         <v>325</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7429,7 +7433,7 @@
       <c r="A12" t="s">
         <v>326</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7437,7 +7441,7 @@
       <c r="A13" t="s">
         <v>332</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7445,7 +7449,7 @@
       <c r="A14" t="s">
         <v>335</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7453,7 +7457,7 @@
       <c r="A15" t="s">
         <v>337</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7461,7 +7465,7 @@
       <c r="A16" t="s">
         <v>338</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7469,7 +7473,7 @@
       <c r="A17" t="s">
         <v>339</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7477,7 +7481,7 @@
       <c r="A18" t="s">
         <v>340</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7485,7 +7489,7 @@
       <c r="A19" t="s">
         <v>341</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7493,7 +7497,7 @@
       <c r="A20" t="s">
         <v>342</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7501,7 +7505,7 @@
       <c r="A21" t="s">
         <v>343</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7509,7 +7513,7 @@
       <c r="A22" t="s">
         <v>344</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7517,7 +7521,7 @@
       <c r="A23" t="s">
         <v>345</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7525,7 +7529,7 @@
       <c r="A24" t="s">
         <v>347</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7533,7 +7537,7 @@
       <c r="A25" t="s">
         <v>348</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7541,7 +7545,7 @@
       <c r="A26" t="s">
         <v>352</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7549,7 +7553,7 @@
       <c r="A27" t="s">
         <v>353</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7557,7 +7561,7 @@
       <c r="A28" t="s">
         <v>356</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7565,7 +7569,7 @@
       <c r="A29" t="s">
         <v>358</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7573,7 +7577,7 @@
       <c r="A30" t="s">
         <v>359</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7581,7 +7585,7 @@
       <c r="A31" t="s">
         <v>360</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7589,7 +7593,7 @@
       <c r="A32" t="s">
         <v>364</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7597,7 +7601,7 @@
       <c r="A33" t="s">
         <v>368</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7605,7 +7609,7 @@
       <c r="A34" t="s">
         <v>369</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7613,7 +7617,7 @@
       <c r="A35" t="s">
         <v>371</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7621,7 +7625,7 @@
       <c r="A36" t="s">
         <v>375</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7629,7 +7633,7 @@
       <c r="A37" t="s">
         <v>376</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7637,7 +7641,7 @@
       <c r="A38" t="s">
         <v>377</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7645,7 +7649,7 @@
       <c r="A39" t="s">
         <v>379</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7653,7 +7657,7 @@
       <c r="A40" t="s">
         <v>380</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7661,7 +7665,7 @@
       <c r="A41" t="s">
         <v>382</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7669,7 +7673,7 @@
       <c r="A42" t="s">
         <v>386</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7677,7 +7681,7 @@
       <c r="A43" t="s">
         <v>388</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7685,7 +7689,7 @@
       <c r="A44" t="s">
         <v>389</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7693,7 +7697,7 @@
       <c r="A45" t="s">
         <v>390</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7701,7 +7705,7 @@
       <c r="A46" t="s">
         <v>394</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7709,7 +7713,7 @@
       <c r="A47" t="s">
         <v>396</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7717,7 +7721,7 @@
       <c r="A48" t="s">
         <v>398</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7725,7 +7729,7 @@
       <c r="A49" t="s">
         <v>399</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7733,7 +7737,7 @@
       <c r="A50" t="s">
         <v>400</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7741,7 +7745,7 @@
       <c r="A51" t="s">
         <v>401</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7749,7 +7753,7 @@
       <c r="A52" t="s">
         <v>402</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7757,7 +7761,7 @@
       <c r="A53" t="s">
         <v>404</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7765,7 +7769,7 @@
       <c r="A54" t="s">
         <v>406</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7773,7 +7777,7 @@
       <c r="A55" t="s">
         <v>408</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7781,7 +7785,7 @@
       <c r="A56" t="s">
         <v>415</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7789,7 +7793,7 @@
       <c r="A57" t="s">
         <v>418</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7797,7 +7801,7 @@
       <c r="A58" t="s">
         <v>423</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7805,7 +7809,7 @@
       <c r="A59" t="s">
         <v>424</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7813,7 +7817,7 @@
       <c r="A60" t="s">
         <v>428</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7821,7 +7825,7 @@
       <c r="A61" t="s">
         <v>430</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7829,7 +7833,7 @@
       <c r="A62" t="s">
         <v>431</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7837,7 +7841,7 @@
       <c r="A63" t="s">
         <v>440</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7845,7 +7849,7 @@
       <c r="A64" t="s">
         <v>441</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7853,7 +7857,7 @@
       <c r="A65" t="s">
         <v>443</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7861,7 +7865,7 @@
       <c r="A66" t="s">
         <v>445</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7869,7 +7873,7 @@
       <c r="A67" t="s">
         <v>447</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7877,7 +7881,7 @@
       <c r="A68" t="s">
         <v>454</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7885,7 +7889,7 @@
       <c r="A69" t="s">
         <v>456</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7893,7 +7897,7 @@
       <c r="A70" t="s">
         <v>457</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7901,7 +7905,7 @@
       <c r="A71" t="s">
         <v>461</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7909,7 +7913,7 @@
       <c r="A72" t="s">
         <v>462</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7917,7 +7921,7 @@
       <c r="A73" t="s">
         <v>470</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7925,7 +7929,7 @@
       <c r="A74" t="s">
         <v>472</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7933,7 +7937,7 @@
       <c r="A75" t="s">
         <v>474</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7941,7 +7945,7 @@
       <c r="A76" t="s">
         <v>478</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7949,7 +7953,7 @@
       <c r="A77" t="s">
         <v>481</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7957,7 +7961,7 @@
       <c r="A78" t="s">
         <v>483</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7965,7 +7969,7 @@
       <c r="A79" t="s">
         <v>486</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7973,7 +7977,7 @@
       <c r="A80" t="s">
         <v>488</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7981,7 +7985,7 @@
       <c r="A81" t="s">
         <v>489</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7989,7 +7993,7 @@
       <c r="A82" t="s">
         <v>497</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8021,7 +8025,7 @@
       <c r="A86" t="s">
         <v>307</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8029,7 +8033,7 @@
       <c r="A87" t="s">
         <v>308</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8037,7 +8041,7 @@
       <c r="A88" t="s">
         <v>312</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8045,7 +8049,7 @@
       <c r="A89" t="s">
         <v>313</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8053,7 +8057,7 @@
       <c r="A90" t="s">
         <v>315</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8061,7 +8065,7 @@
       <c r="A91" t="s">
         <v>316</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8069,7 +8073,7 @@
       <c r="A92" t="s">
         <v>317</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8077,7 +8081,7 @@
       <c r="A93" t="s">
         <v>318</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8085,7 +8089,7 @@
       <c r="A94" t="s">
         <v>319</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8093,7 +8097,7 @@
       <c r="A95" t="s">
         <v>322</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8101,7 +8105,7 @@
       <c r="A96" t="s">
         <v>323</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8109,7 +8113,7 @@
       <c r="A97" t="s">
         <v>324</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8117,7 +8121,7 @@
       <c r="A98" t="s">
         <v>327</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8125,7 +8129,7 @@
       <c r="A99" t="s">
         <v>328</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8133,7 +8137,7 @@
       <c r="A100" t="s">
         <v>329</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8141,7 +8145,7 @@
       <c r="A101" t="s">
         <v>330</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8149,7 +8153,7 @@
       <c r="A102" t="s">
         <v>331</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8157,7 +8161,7 @@
       <c r="A103" t="s">
         <v>333</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8165,7 +8169,7 @@
       <c r="A104" t="s">
         <v>334</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8173,7 +8177,7 @@
       <c r="A105" t="s">
         <v>336</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8181,7 +8185,7 @@
       <c r="A106" t="s">
         <v>346</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8189,7 +8193,7 @@
       <c r="A107" t="s">
         <v>349</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8197,7 +8201,7 @@
       <c r="A108" t="s">
         <v>350</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8205,7 +8209,7 @@
       <c r="A109" t="s">
         <v>351</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8213,7 +8217,7 @@
       <c r="A110" t="s">
         <v>354</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8221,7 +8225,7 @@
       <c r="A111" t="s">
         <v>355</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8229,7 +8233,7 @@
       <c r="A112" t="s">
         <v>357</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8237,7 +8241,7 @@
       <c r="A113" t="s">
         <v>361</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8245,7 +8249,7 @@
       <c r="A114" t="s">
         <v>362</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8253,7 +8257,7 @@
       <c r="A115" t="s">
         <v>363</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8261,7 +8265,7 @@
       <c r="A116" t="s">
         <v>365</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8269,7 +8273,7 @@
       <c r="A117" t="s">
         <v>366</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8277,7 +8281,7 @@
       <c r="A118" t="s">
         <v>367</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8285,7 +8289,7 @@
       <c r="A119" t="s">
         <v>370</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8293,7 +8297,7 @@
       <c r="A120" t="s">
         <v>372</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8301,7 +8305,7 @@
       <c r="A121" t="s">
         <v>373</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8309,7 +8313,7 @@
       <c r="A122" t="s">
         <v>374</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8317,7 +8321,7 @@
       <c r="A123" t="s">
         <v>378</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8325,7 +8329,7 @@
       <c r="A124" t="s">
         <v>381</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8333,7 +8337,7 @@
       <c r="A125" t="s">
         <v>383</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8341,7 +8345,7 @@
       <c r="A126" t="s">
         <v>384</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8349,7 +8353,7 @@
       <c r="A127" t="s">
         <v>385</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8357,7 +8361,7 @@
       <c r="A128" t="s">
         <v>387</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8365,7 +8369,7 @@
       <c r="A129" t="s">
         <v>391</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8373,7 +8377,7 @@
       <c r="A130" t="s">
         <v>392</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8381,7 +8385,7 @@
       <c r="A131" t="s">
         <v>393</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8389,7 +8393,7 @@
       <c r="A132" t="s">
         <v>395</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8397,7 +8401,7 @@
       <c r="A133" t="s">
         <v>397</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8405,7 +8409,7 @@
       <c r="A134" t="s">
         <v>403</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8413,7 +8417,7 @@
       <c r="A135" t="s">
         <v>405</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8421,7 +8425,7 @@
       <c r="A136" t="s">
         <v>407</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8429,7 +8433,7 @@
       <c r="A137" t="s">
         <v>409</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8437,7 +8441,7 @@
       <c r="A138" t="s">
         <v>410</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8445,7 +8449,7 @@
       <c r="A139" t="s">
         <v>411</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8453,7 +8457,7 @@
       <c r="A140" t="s">
         <v>412</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8461,7 +8465,7 @@
       <c r="A141" t="s">
         <v>413</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8469,7 +8473,7 @@
       <c r="A142" t="s">
         <v>414</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8477,7 +8481,7 @@
       <c r="A143" t="s">
         <v>416</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8485,7 +8489,7 @@
       <c r="A144" t="s">
         <v>417</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8493,7 +8497,7 @@
       <c r="A145" t="s">
         <v>419</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8501,7 +8505,7 @@
       <c r="A146" t="s">
         <v>420</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8509,7 +8513,7 @@
       <c r="A147" t="s">
         <v>421</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8517,7 +8521,7 @@
       <c r="A148" t="s">
         <v>422</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8525,7 +8529,7 @@
       <c r="A149" t="s">
         <v>425</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8533,7 +8537,7 @@
       <c r="A150" t="s">
         <v>426</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8541,7 +8545,7 @@
       <c r="A151" t="s">
         <v>427</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8549,7 +8553,7 @@
       <c r="A152" t="s">
         <v>429</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8557,7 +8561,7 @@
       <c r="A153" t="s">
         <v>432</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8565,7 +8569,7 @@
       <c r="A154" t="s">
         <v>433</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8573,7 +8577,7 @@
       <c r="A155" t="s">
         <v>434</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8581,7 +8585,7 @@
       <c r="A156" t="s">
         <v>435</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8589,7 +8593,7 @@
       <c r="A157" t="s">
         <v>436</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8597,7 +8601,7 @@
       <c r="A158" t="s">
         <v>437</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8605,7 +8609,7 @@
       <c r="A159" t="s">
         <v>438</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8613,7 +8617,7 @@
       <c r="A160" t="s">
         <v>439</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8621,7 +8625,7 @@
       <c r="A161" t="s">
         <v>442</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8629,7 +8633,7 @@
       <c r="A162" t="s">
         <v>444</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8637,7 +8641,7 @@
       <c r="A163" t="s">
         <v>446</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8645,7 +8649,7 @@
       <c r="A164" t="s">
         <v>448</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8653,7 +8657,7 @@
       <c r="A165" t="s">
         <v>449</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8661,7 +8665,7 @@
       <c r="A166" t="s">
         <v>450</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8669,7 +8673,7 @@
       <c r="A167" t="s">
         <v>451</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8677,7 +8681,7 @@
       <c r="A168" t="s">
         <v>452</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8685,7 +8689,7 @@
       <c r="A169" t="s">
         <v>453</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8693,7 +8697,7 @@
       <c r="A170" t="s">
         <v>455</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8701,7 +8705,7 @@
       <c r="A171" t="s">
         <v>458</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8709,7 +8713,7 @@
       <c r="A172" t="s">
         <v>459</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8717,7 +8721,7 @@
       <c r="A173" t="s">
         <v>460</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8725,7 +8729,7 @@
       <c r="A174" t="s">
         <v>463</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8733,7 +8737,7 @@
       <c r="A175" t="s">
         <v>464</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8741,7 +8745,7 @@
       <c r="A176" t="s">
         <v>465</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8749,7 +8753,7 @@
       <c r="A177" t="s">
         <v>466</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8757,7 +8761,7 @@
       <c r="A178" t="s">
         <v>467</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8765,7 +8769,7 @@
       <c r="A179" t="s">
         <v>468</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8773,7 +8777,7 @@
       <c r="A180" t="s">
         <v>469</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8781,7 +8785,7 @@
       <c r="A181" t="s">
         <v>471</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8789,7 +8793,7 @@
       <c r="A182" t="s">
         <v>473</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8797,7 +8801,7 @@
       <c r="A183" t="s">
         <v>475</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8805,7 +8809,7 @@
       <c r="A184" t="s">
         <v>476</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8813,7 +8817,7 @@
       <c r="A185" t="s">
         <v>477</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8821,7 +8825,7 @@
       <c r="A186" t="s">
         <v>479</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8829,7 +8833,7 @@
       <c r="A187" t="s">
         <v>480</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8837,7 +8841,7 @@
       <c r="A188" t="s">
         <v>482</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8845,7 +8849,7 @@
       <c r="A189" t="s">
         <v>484</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8853,7 +8857,7 @@
       <c r="A190" t="s">
         <v>485</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8861,7 +8865,7 @@
       <c r="A191" t="s">
         <v>487</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8869,7 +8873,7 @@
       <c r="A192" t="s">
         <v>490</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8877,7 +8881,7 @@
       <c r="A193" t="s">
         <v>491</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8885,7 +8889,7 @@
       <c r="A194" t="s">
         <v>492</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8893,7 +8897,7 @@
       <c r="A195" t="s">
         <v>493</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8901,7 +8905,7 @@
       <c r="A196" t="s">
         <v>494</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8909,7 +8913,7 @@
       <c r="A197" t="s">
         <v>495</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8917,7 +8921,7 @@
       <c r="A198" t="s">
         <v>496</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8925,7 +8929,7 @@
       <c r="A199" t="s">
         <v>498</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8933,7 +8937,7 @@
       <c r="A200" t="s">
         <v>499</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8941,7 +8945,7 @@
       <c r="A201" t="s">
         <v>500</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="2">
         <v>0</v>
       </c>
     </row>
@@ -9000,7 +9004,7 @@
       <c r="B208">
         <v>1</v>
       </c>
-      <c r="F208" s="5"/>
+      <c r="F208" s="4"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">

--- a/Primevideo.xlsx
+++ b/Primevideo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Drumond\Documents\Insper 2o semestre\CDados\GitHub_CD\Projeto_1_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81BEECA-9DDC-4AA0-AE7F-AB5BFCF2AA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABC35D2-815B-47FC-81A2-3F810F247482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3304,17 +3304,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A493" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E306" sqref="E306"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>286</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>220</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>273</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>181</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>299</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>280</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>184</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>199</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>228</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>163</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>171</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>179</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>180</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>190</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>265</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>293</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>229</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>292</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>295</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>210</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>241</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>159</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>282</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>261</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>211</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>246</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>237</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>217</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>177</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>189</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>63</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>283</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>48</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>205</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>601</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>602</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>603</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>604</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>605</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>606</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>607</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>608</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>609</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>610</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>611</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>612</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>613</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>614</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>615</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>616</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>617</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>618</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>619</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>620</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>621</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>622</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>623</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>624</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>625</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>626</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>627</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>628</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>629</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>630</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>631</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>632</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>633</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>634</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>635</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>636</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>637</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>638</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>639</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>640</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>641</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>642</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>643</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>644</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>645</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>646</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>647</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>648</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>649</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>650</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>651</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>652</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>653</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>256</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>65</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>166</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>168</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>186</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>84</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>267</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>52</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>207</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>62</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>106</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>252</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>263</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>235</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>83</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>79</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>151</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>111</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>212</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>178</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>188</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>245</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>183</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>110</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>253</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>222</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>203</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>114</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>192</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>279</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>104</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>155</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>145</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>126</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>172</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>173</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>269</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>167</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>133</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>107</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>157</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>200</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>224</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>209</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>254</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>236</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>250</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>176</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>150</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>249</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>55</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>185</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>26</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>195</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>82</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>223</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>10</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>123</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>244</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>18</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>25</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>169</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>77</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>102</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>226</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>266</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>94</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>115</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>230</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>258</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>32</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>131</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>70</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>149</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>193</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>146</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>139</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>45</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>294</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>288</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>156</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>259</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>242</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>121</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>27</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>225</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>272</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>204</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>108</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>118</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>8</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>198</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>136</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>274</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>148</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>90</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>201</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>103</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>264</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>164</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>248</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>284</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>53</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>135</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>257</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>19</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>33</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>89</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>20</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>124</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>116</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>98</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>134</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>119</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>255</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>281</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>61</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>234</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>194</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>161</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>72</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>289</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>43</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>85</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>290</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>206</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>4</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>59</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>50</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>214</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>142</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>3</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>213</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>215</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>291</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>260</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>143</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>112</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
         <v>268</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>247</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>238</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>191</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>216</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>270</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>130</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>147</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
         <v>21</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>219</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>232</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>1</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
         <v>141</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>78</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>174</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>137</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>101</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>278</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>23</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>5</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>42</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>44</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>240</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>251</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>298</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>57</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>60</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>231</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>285</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>277</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>182</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>30</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>227</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>160</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>239</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>287</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="7" t="s">
         <v>276</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>99</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>158</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>13</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>54</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>87</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>233</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>29</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>41</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>39</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>95</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>271</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>51</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>7</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>73</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>100</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>202</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>11</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>262</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>297</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>76</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>40</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>86</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>197</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
         <v>58</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
         <v>144</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
         <v>221</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
         <v>68</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
         <v>81</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
         <v>208</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
         <v>69</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="6" t="s">
         <v>31</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="6" t="s">
         <v>109</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
         <v>88</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
         <v>154</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
         <v>275</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
         <v>125</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
         <v>243</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
         <v>56</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
         <v>128</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
         <v>162</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>296</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
         <v>196</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
         <v>34</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
         <v>654</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
         <v>655</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
         <v>656</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
         <v>657</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
         <v>658</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
         <v>659</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
         <v>660</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
         <v>661</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
         <v>662</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
         <v>663</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
         <v>664</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
         <v>665</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
         <v>666</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
         <v>667</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
         <v>668</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
         <v>669</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
         <v>670</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="6" t="s">
         <v>671</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
         <v>672</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
         <v>673</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
         <v>674</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
         <v>675</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
         <v>676</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
         <v>677</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
         <v>678</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
         <v>679</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
         <v>680</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
         <v>681</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
         <v>682</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
         <v>683</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
         <v>684</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
         <v>685</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
         <v>686</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
         <v>687</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
         <v>688</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
         <v>689</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
         <v>495</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
         <v>690</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
         <v>691</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
         <v>692</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
         <v>693</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
         <v>694</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
         <v>695</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
         <v>696</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
         <v>697</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
         <v>698</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
         <v>649</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
         <v>699</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
         <v>700</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
         <v>701</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
         <v>702</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
         <v>703</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
         <v>704</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
         <v>705</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
         <v>706</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
         <v>707</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
         <v>708</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
         <v>709</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>710</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>711</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>712</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>713</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="7" t="s">
         <v>714</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>715</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>716</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>717</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>718</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>719</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>720</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>721</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>722</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>723</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>724</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>725</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>726</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>727</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>728</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>729</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>730</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
         <v>731</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
         <v>732</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
         <v>733</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
         <v>734</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
         <v>735</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
         <v>736</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
         <v>737</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
         <v>738</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
         <v>739</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
         <v>740</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>741</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
         <v>742</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
         <v>743</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>744</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
         <v>745</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
         <v>746</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
         <v>747</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
         <v>748</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="6" t="s">
         <v>749</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
         <v>750</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="7" t="s">
         <v>751</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
         <v>752</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
         <v>753</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>754</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
         <v>755</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>756</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>757</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>758</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>759</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
         <v>760</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
         <v>761</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="6" t="s">
         <v>762</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="6" t="s">
         <v>763</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
         <v>764</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="6" t="s">
         <v>765</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
         <v>766</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="6" t="s">
         <v>767</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="6" t="s">
         <v>768</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>769</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>770</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>771</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>772</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>773</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>774</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>775</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>776</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>777</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>778</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>779</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>780</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>781</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>782</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>783</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>784</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>785</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>786</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>787</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>788</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>789</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>790</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>791</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>792</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>793</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>794</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>795</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>796</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>797</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>798</v>
       </c>
@@ -7332,16 +7332,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G296" sqref="G296"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
@@ -7349,1207 +7349,1207 @@
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B21" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B25" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B26" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B27" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="B29" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B30" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="B31" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="B32" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B33" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B34" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B36" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="B38" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="B39" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B40" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="B41" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="B42" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B43" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="B44" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B45" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B46" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B47" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="B47" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B48" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B49" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B49" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="B50" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="B51" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="B52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="B52" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="B53" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="B54" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="B55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="B55" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B56" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="B56" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="B57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="B57" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="B58" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B58" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B59" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="B59" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="B60" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B61" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="B61" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="B62" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="B63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="B63" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="B64" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="B64" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="B65" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="B66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="B67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="B67" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="B68" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="B69" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="B70" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="B71" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="B72" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="B73" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="B74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="B75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="B75" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="B76" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="B77" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="B78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="B79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="B79" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B80" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="B80" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="B81" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="B82" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="B83" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="B84" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="B85" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B86" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="B86" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B87" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="B87" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B88" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="B88" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B89" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="B89" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B90" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="B90" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B91" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="B91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B92" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="B92" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B93" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="B93" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B94" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="B94" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B95" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="B95" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B96" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="B96" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B97" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="B97" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B98" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="B98" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B99" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="B99" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B100" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="B100" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B101" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="B101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B102" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="B102" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B103" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="B103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B104" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="B104" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B105" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="B105" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B106" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="B106" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B107" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="B107" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B108" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="B108" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B109" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="B109" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B110" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="B110" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B111" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="B111" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B112" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="B112" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B113" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="B113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B114" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="B114" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B115" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="B115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B116" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="B116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B117" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="B117" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B118" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="B118" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B119" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="B119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B120" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="B120" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B121" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="B121" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B122" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+      <c r="B122" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B123" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+      <c r="B123" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B124" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+      <c r="B124" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B125" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+      <c r="B125" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B126" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+      <c r="B126" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B127" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+      <c r="B127" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B128" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="B128" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B129" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+      <c r="B129" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B130" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+      <c r="B130" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B131" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+      <c r="B131" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="B132" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="B132" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B133" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="B133" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B134" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+      <c r="B134" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B135" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="B135" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B136" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="B136" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="B137" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="B137" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="B138" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="B138" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="B139" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="B139" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B140" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="B140" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B141" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+      <c r="B141" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B142" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="B142" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="B143" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+      <c r="B143" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B144" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+      <c r="B144" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B145" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+      <c r="B145" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B146" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+      <c r="B146" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B147" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+      <c r="B147" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B148" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="B148" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="B149" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+      <c r="B149" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B150" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B150" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>427</v>
       </c>
       <c r="B151" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>429</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>432</v>
       </c>
@@ -8565,15 +8565,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>433</v>
       </c>
       <c r="B154" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>434</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>435</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>436</v>
       </c>
@@ -8597,39 +8597,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>437</v>
       </c>
       <c r="B158" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>438</v>
       </c>
       <c r="B159" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>439</v>
       </c>
       <c r="B160" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>442</v>
       </c>
       <c r="B161" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>444</v>
       </c>
@@ -8637,23 +8637,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>446</v>
       </c>
       <c r="B163" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>448</v>
       </c>
       <c r="B164" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>449</v>
       </c>
@@ -8661,23 +8661,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>450</v>
       </c>
       <c r="B166" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>451</v>
       </c>
       <c r="B167" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>452</v>
       </c>
@@ -8685,31 +8685,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>453</v>
       </c>
       <c r="B169" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>455</v>
       </c>
       <c r="B170" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>458</v>
       </c>
       <c r="B171" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>459</v>
       </c>
@@ -8717,23 +8717,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>460</v>
       </c>
       <c r="B173" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>463</v>
       </c>
       <c r="B174" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>464</v>
       </c>
@@ -8741,15 +8741,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>465</v>
       </c>
       <c r="B176" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>466</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>467</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>468</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>469</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>471</v>
       </c>
@@ -8789,39 +8789,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>473</v>
       </c>
       <c r="B182" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>475</v>
       </c>
       <c r="B183" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>476</v>
       </c>
       <c r="B184" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>477</v>
       </c>
       <c r="B185" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>479</v>
       </c>
@@ -8829,15 +8829,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>480</v>
       </c>
       <c r="B187" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>482</v>
       </c>
@@ -8845,15 +8845,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>484</v>
       </c>
       <c r="B189" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>485</v>
       </c>
@@ -8861,39 +8861,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>487</v>
       </c>
       <c r="B191" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>490</v>
       </c>
       <c r="B192" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>491</v>
       </c>
       <c r="B193" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>492</v>
       </c>
       <c r="B194" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>493</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>494</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>495</v>
       </c>
@@ -8917,15 +8917,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>496</v>
       </c>
       <c r="B198" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>498</v>
       </c>
@@ -8933,120 +8933,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>499</v>
       </c>
       <c r="B200" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>500</v>
       </c>
       <c r="B201" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>502</v>
       </c>
       <c r="B202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>503</v>
       </c>
       <c r="B203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>504</v>
       </c>
       <c r="B204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>505</v>
       </c>
       <c r="B205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>506</v>
       </c>
       <c r="B206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>507</v>
       </c>
       <c r="B207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>508</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>509</v>
       </c>
       <c r="B209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>510</v>
       </c>
       <c r="B210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>511</v>
       </c>
       <c r="B211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>512</v>
       </c>
       <c r="B212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>513</v>
       </c>
       <c r="B213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>514</v>
       </c>
@@ -9054,71 +9054,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>515</v>
       </c>
       <c r="B215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>516</v>
       </c>
       <c r="B216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>517</v>
       </c>
       <c r="B217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>518</v>
       </c>
       <c r="B218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>519</v>
       </c>
       <c r="B219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>520</v>
       </c>
       <c r="B220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>521</v>
       </c>
       <c r="B221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>522</v>
       </c>
       <c r="B222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>523</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>524</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>525</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>526</v>
       </c>
@@ -9150,15 +9150,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>527</v>
       </c>
       <c r="B227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>528</v>
       </c>
@@ -9166,23 +9166,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>529</v>
       </c>
       <c r="B229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>530</v>
       </c>
       <c r="B230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>531</v>
       </c>
@@ -9190,23 +9190,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>532</v>
       </c>
       <c r="B232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>533</v>
       </c>
       <c r="B233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>534</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>535</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>536</v>
       </c>
@@ -9230,15 +9230,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>537</v>
       </c>
       <c r="B237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>538</v>
       </c>
@@ -9246,15 +9246,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>539</v>
       </c>
       <c r="B239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>540</v>
       </c>
@@ -9262,39 +9262,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>541</v>
       </c>
       <c r="B241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>542</v>
       </c>
       <c r="B242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>543</v>
       </c>
       <c r="B243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>544</v>
       </c>
       <c r="B244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>545</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>546</v>
       </c>
@@ -9310,15 +9310,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>547</v>
       </c>
       <c r="B247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>548</v>
       </c>
@@ -9326,15 +9326,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>549</v>
       </c>
       <c r="B249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>550</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>551</v>
       </c>
@@ -9350,15 +9350,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>552</v>
       </c>
       <c r="B252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>553</v>
       </c>
@@ -9366,23 +9366,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>554</v>
       </c>
       <c r="B254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>555</v>
       </c>
       <c r="B255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>556</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>557</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>558</v>
       </c>
@@ -9406,15 +9406,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>559</v>
       </c>
       <c r="B259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>560</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>561</v>
       </c>
@@ -9430,15 +9430,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>562</v>
       </c>
       <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>563</v>
       </c>
@@ -9446,23 +9446,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>564</v>
       </c>
       <c r="B264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>565</v>
       </c>
       <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>566</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>567</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>568</v>
       </c>
@@ -9486,15 +9486,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>569</v>
       </c>
       <c r="B269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>570</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>571</v>
       </c>
@@ -9510,23 +9510,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>572</v>
       </c>
       <c r="B272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>573</v>
       </c>
       <c r="B273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>574</v>
       </c>
@@ -9534,15 +9534,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>575</v>
       </c>
       <c r="B275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>576</v>
       </c>
@@ -9550,23 +9550,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>577</v>
       </c>
       <c r="B277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>578</v>
       </c>
       <c r="B278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>579</v>
       </c>
@@ -9574,15 +9574,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>580</v>
       </c>
       <c r="B280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>581</v>
       </c>
@@ -9590,63 +9590,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>582</v>
       </c>
       <c r="B282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>583</v>
       </c>
       <c r="B283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>584</v>
       </c>
       <c r="B284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>585</v>
       </c>
       <c r="B285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>586</v>
       </c>
       <c r="B286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>587</v>
       </c>
       <c r="B287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>588</v>
       </c>
       <c r="B288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>589</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>590</v>
       </c>
@@ -9662,39 +9662,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>591</v>
       </c>
       <c r="B291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>592</v>
       </c>
       <c r="B292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>593</v>
       </c>
       <c r="B293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>594</v>
       </c>
       <c r="B294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>595</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>596</v>
       </c>
@@ -9710,23 +9710,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>597</v>
       </c>
       <c r="B297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>598</v>
       </c>
       <c r="B298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>599</v>
       </c>
@@ -9734,12 +9734,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>600</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9747,5 +9747,6 @@
     <sortCondition descending="1" ref="B1:B202"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Primevideo.xlsx
+++ b/Primevideo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Drumond\Documents\Insper 2o semestre\CDados\GitHub_CD\Projeto_1_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABC35D2-815B-47FC-81A2-3F810F247482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E3ADB1-C841-4CD4-B98E-35BF498DF8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7332,8 +7332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7354,7 +7354,7 @@
         <v>301</v>
       </c>
       <c r="B2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7466,7 +7466,7 @@
         <v>338</v>
       </c>
       <c r="B16" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -7594,7 +7594,7 @@
         <v>364</v>
       </c>
       <c r="B32" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -7738,7 +7738,7 @@
         <v>400</v>
       </c>
       <c r="B50" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -7754,7 +7754,7 @@
         <v>402</v>
       </c>
       <c r="B52" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -7778,7 +7778,7 @@
         <v>408</v>
       </c>
       <c r="B55" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -7786,7 +7786,7 @@
         <v>415</v>
       </c>
       <c r="B56" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -7802,7 +7802,7 @@
         <v>423</v>
       </c>
       <c r="B58" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -7842,7 +7842,7 @@
         <v>440</v>
       </c>
       <c r="B63" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -7930,7 +7930,7 @@
         <v>472</v>
       </c>
       <c r="B74" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -7954,7 +7954,7 @@
         <v>481</v>
       </c>
       <c r="B77" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -8018,7 +8018,7 @@
         <v>305</v>
       </c>
       <c r="B85" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -8026,7 +8026,7 @@
         <v>307</v>
       </c>
       <c r="B86" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -8050,7 +8050,7 @@
         <v>313</v>
       </c>
       <c r="B89" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -8090,7 +8090,7 @@
         <v>319</v>
       </c>
       <c r="B94" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -8106,7 +8106,7 @@
         <v>323</v>
       </c>
       <c r="B96" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -8130,7 +8130,7 @@
         <v>328</v>
       </c>
       <c r="B99" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -8242,7 +8242,7 @@
         <v>361</v>
       </c>
       <c r="B113" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -8378,7 +8378,7 @@
         <v>392</v>
       </c>
       <c r="B130" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -8386,7 +8386,7 @@
         <v>393</v>
       </c>
       <c r="B131" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -8394,7 +8394,7 @@
         <v>395</v>
       </c>
       <c r="B132" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -8410,7 +8410,7 @@
         <v>403</v>
       </c>
       <c r="B134" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -8434,7 +8434,7 @@
         <v>409</v>
       </c>
       <c r="B137" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -8474,7 +8474,7 @@
         <v>414</v>
       </c>
       <c r="B142" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
